--- a/Ensemble learning---ACC+R2+MAE+RMSE/O content/Outputs-O.xlsx
+++ b/Ensemble learning---ACC+R2+MAE+RMSE/O content/Outputs-O.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13781\Desktop\paper1补充文献\生物油代码合集\生物油-输出\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士期间所有文件汇总\十一\集成学习-热解油可解释性\12.5-集成学习-V1\Git-Hub上传内容附件-热解油可解释性\Ensemble learning---ACC+R2+MAE+RMSE\O content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDDD082-119B-432D-9B67-1F7A29150322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF04C58-E717-42AA-9BE6-95D865874FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -32,6 +32,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -62,10 +63,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -345,8 +346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -356,627 +357,627 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>0.29018492176386901</v>
+        <v>29.0184921763869</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>0.31731502669717798</v>
+        <v>31.731502669717798</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0.29156542867059998</v>
+        <v>29.156542867059997</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.30447761194029799</v>
+        <v>30.447761194029798</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>0.29564581046469102</v>
+        <v>29.564581046469101</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>0.320978219335116</v>
+        <v>32.097821933511597</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>0.27945205479452101</v>
+        <v>27.945205479452103</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>0.29826504245108898</v>
+        <v>29.826504245108897</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>0.29230223483504802</v>
+        <v>29.230223483504801</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0.31443688586545698</v>
+        <v>31.443688586545697</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>0.29522431259044901</v>
+        <v>29.5224312590449</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>0.31003039513677799</v>
+        <v>31.003039513677798</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>0.30825688073394503</v>
+        <v>30.825688073394502</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>0.30161579892280099</v>
+        <v>30.161579892280098</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>0.28895184135977298</v>
+        <v>28.895184135977299</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>0.29180209461899598</v>
+        <v>29.180209461899597</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>0.30032177332856602</v>
+        <v>30.032177332856602</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>0.30803738317757001</v>
+        <v>30.803738317757002</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>0.284736481861739</v>
+        <v>28.4736481861739</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>0.312239484653278</v>
+        <v>31.223948465327801</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>0.30423759507424802</v>
+        <v>30.423759507424801</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>0.30862329803328298</v>
+        <v>30.862329803328297</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>0.28682996095136698</v>
+        <v>28.682996095136698</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>0.29949604031677501</v>
+        <v>29.949604031677502</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>0.28796708947548899</v>
+        <v>28.7967089475489</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>0.28861646234676003</v>
+        <v>28.861646234676002</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>0.30922311519326401</v>
+        <v>30.922311519326399</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>0.30292102416155797</v>
+        <v>30.292102416155796</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>0.310995927434284</v>
+        <v>31.099592743428399</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>0.31432973805855202</v>
+        <v>31.432973805855202</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>0.30962034647991199</v>
+        <v>30.962034647991199</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>0.312883435582822</v>
+        <v>31.2883435582822</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>0.29316420014094402</v>
+        <v>29.316420014094401</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>0.29693076374018601</v>
+        <v>29.693076374018602</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>0.30228208005985802</v>
+        <v>30.228208005985802</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>0.287408440878968</v>
+        <v>28.7408440878968</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>0.28321065545040303</v>
+        <v>28.321065545040302</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>0.29435336976320597</v>
+        <v>29.435336976320599</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>0.30746489283074602</v>
+        <v>30.746489283074602</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>0.31064975009611701</v>
+        <v>31.0649750096117</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>0.27852464667356103</v>
+        <v>27.852464667356102</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>0.29820788530466003</v>
+        <v>29.820788530466004</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>0.30666170450316299</v>
+        <v>30.666170450316301</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>0.29903880384478498</v>
+        <v>29.903880384478498</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>0.29440905874026901</v>
+        <v>29.440905874026903</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>0.30529825861430199</v>
+        <v>30.529825861430197</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>0.285022483569699</v>
+        <v>28.502248356969901</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>0.28709454796411299</v>
+        <v>28.7094547964113</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>0.30780952380952398</v>
+        <v>30.780952380952399</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>0.28060522696010998</v>
+        <v>28.060522696010999</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>0.28651685393258403</v>
+        <v>28.651685393258404</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>0.29996359665089201</v>
+        <v>29.996359665089201</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>0.297810218978102</v>
+        <v>29.781021897810199</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>0.28384429900103297</v>
+        <v>28.384429900103296</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>0.28531468531468501</v>
+        <v>28.531468531468501</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>0.28176795580110497</v>
+        <v>28.176795580110497</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>0.30079537237888598</v>
+        <v>30.079537237888598</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>0.29070580013976199</v>
+        <v>29.070580013976198</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>0.30640879787637498</v>
+        <v>30.640879787637498</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>0.29394812680115301</v>
+        <v>29.394812680115301</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>0.313017306245297</v>
+        <v>31.3017306245297</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>0.277377274287676</v>
+        <v>27.737727428767599</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>0.29650547123191001</v>
+        <v>29.650547123191</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>0.31238378579397502</v>
+        <v>31.238378579397502</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>0.30177514792899401</v>
+        <v>30.177514792899402</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>0.31662269129287601</v>
+        <v>31.662269129287601</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>0.30364524614806498</v>
+        <v>30.364524614806498</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>0.30260741828865201</v>
+        <v>30.2607418288652</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>0.28445648493057901</v>
+        <v>28.445648493057902</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>0.28949199721642299</v>
+        <v>28.949199721642298</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>0.30210602759622401</v>
+        <v>30.2106027596224</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>0.30312035661218401</v>
+        <v>30.312035661218399</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>0.288057040998217</v>
+        <v>28.8057040998217</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>0.31806134040136302</v>
+        <v>31.806134040136303</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>0.28241683638832299</v>
+        <v>28.241683638832299</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>0.28294036061026401</v>
+        <v>28.2940360610264</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>0.31082610335722399</v>
+        <v>31.0826103357224</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>0.31877394636015299</v>
+        <v>31.8773946360153</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>0.30883444691907902</v>
+        <v>30.883444691907901</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>0.29192982456140398</v>
+        <v>29.192982456140399</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>0.31655781790241999</v>
+        <v>31.655781790241999</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>0.29651162790697699</v>
+        <v>29.6511627906977</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>0.292682926829268</v>
+        <v>29.268292682926798</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>0.28591065292096202</v>
+        <v>28.5910652920962</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>0.30584707646176901</v>
+        <v>30.584707646176902</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>0.279681550709588</v>
+        <v>27.968155070958801</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>0.30690537084399</v>
+        <v>30.690537084399001</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>0.30394688306897799</v>
+        <v>30.394688306897798</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>0.29865893439652003</v>
+        <v>29.865893439652002</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>0.28357191547375599</v>
+        <v>28.357191547375599</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>0.29481216457960602</v>
+        <v>29.481216457960603</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>0.29959213941416402</v>
+        <v>29.959213941416401</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>0.28084810566562401</v>
+        <v>28.084810566562403</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>0.31519699812382701</v>
+        <v>31.519699812382701</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>0.29608336327703899</v>
+        <v>29.608336327703899</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>0.29278494248867198</v>
+        <v>29.278494248867197</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>0.31021625652498103</v>
+        <v>31.021625652498102</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>0.29401470073503699</v>
+        <v>29.401470073503699</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>0.28151691151349501</v>
+        <v>28.1516911513495</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>0.30044182621502202</v>
+        <v>30.044182621502202</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>0.29106322854115202</v>
+        <v>29.106322854115202</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>0.28440689897923299</v>
+        <v>28.440689897923299</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>0.27830832196452898</v>
+        <v>27.830832196452899</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>0.29054297015462099</v>
+        <v>29.054297015462101</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>0.28678729941959702</v>
+        <v>28.678729941959702</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>0.29736557199566899</v>
+        <v>29.736557199566899</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>0.27623931623931602</v>
+        <v>27.623931623931604</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>0.30476190476190501</v>
+        <v>30.476190476190503</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>0.28772919605077601</v>
+        <v>28.7729196050776</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>0.31510516252390097</v>
+        <v>31.510516252390097</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>0.289834681674288</v>
+        <v>28.9834681674288</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>0.31586940015185999</v>
+        <v>31.586940015185998</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>0.31366577845451099</v>
+        <v>31.366577845451101</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>0.28561329091551801</v>
+        <v>28.561329091551801</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>0.28036747192922801</v>
+        <v>28.0367471929228</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>0.29307217990569501</v>
+        <v>29.307217990569502</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>0.30610743193524698</v>
+        <v>30.610743193524698</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>0.28915662650602397</v>
+        <v>28.915662650602396</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>0.31145038167938899</v>
+        <v>31.1450381679389</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>0.285617137028222</v>
+        <v>28.5617137028222</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>0.282675814751286</v>
+        <v>28.267581475128601</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>0.31951312286040301</v>
+        <v>31.951312286040302</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>0.30093109869646201</v>
+        <v>30.093109869646202</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>0.29525483304042199</v>
+        <v>29.525483304042201</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>0.28895184135977298</v>
+        <v>28.895184135977299</v>
       </c>
     </row>
   </sheetData>
